--- a/Vehicle Routing Problem/Tuning/Tuning.xlsx
+++ b/Vehicle Routing Problem/Tuning/Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kornel\source\repos\Vehicle Routing Problem\Vehicle Routing Problem\Tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D22F4D-3E21-448A-935C-2CD69C5F8B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32C2CCD-6A3B-42B7-A6D4-1D399BD67B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuning 1" sheetId="2" r:id="rId1"/>
@@ -3019,9 +3019,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -8531,7 +8530,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8844,7 +8843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D863EF-3E5C-473D-98A7-3675D56ABAA9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9156,7 +9155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6DA035-097B-407A-958B-7C8F7A4AD3AA}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9199,7 +9198,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -9211,21 +9210,21 @@
       <c r="D2">
         <v>974</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>906</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>907</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>908</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -9237,21 +9236,21 @@
       <c r="D3">
         <v>1082</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>910</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>911</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>912</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
@@ -9263,21 +9262,21 @@
       <c r="D4">
         <v>752</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>914</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>915</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>916</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5">
@@ -9289,21 +9288,21 @@
       <c r="D5">
         <v>979</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>918</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>919</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>920</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
@@ -9315,21 +9314,21 @@
       <c r="D6">
         <v>1200</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>922</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>923</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>924</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7">
@@ -9341,21 +9340,21 @@
       <c r="D7">
         <v>35656</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>926</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>927</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>928</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8">
@@ -9367,21 +9366,21 @@
       <c r="D8">
         <v>156964</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>930</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>931</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>932</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9">
@@ -9393,21 +9392,21 @@
       <c r="D9">
         <v>109820</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>934</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>935</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>936</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
       <c r="B10">
@@ -9419,21 +9418,21 @@
       <c r="D10">
         <v>255778</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>938</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>939</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>940</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11">
@@ -9445,16 +9444,16 @@
       <c r="D11">
         <v>238170</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>942</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>943</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>944</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>945</v>
       </c>
     </row>
